--- a/results/cifar10_training/results_rehearsal_0.5_cifar10.xlsx
+++ b/results/cifar10_training/results_rehearsal_0.5_cifar10.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.309931395984278</v>
+        <v>1.270765083107522</v>
       </c>
       <c r="D3">
-        <v>1.149058779080709</v>
+        <v>0.9224612712860107</v>
       </c>
       <c r="E3">
-        <v>26.66</v>
+        <v>29.98</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.005504805457592011</v>
+        <v>0.00485296642780304</v>
       </c>
       <c r="J3">
-        <v>53.32</v>
+        <v>59.96</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9391520614546489</v>
+        <v>0.8992907719883493</v>
       </c>
       <c r="D4">
-        <v>0.8194558223088583</v>
+        <v>0.8475847244262695</v>
       </c>
       <c r="E4">
-        <v>32.84</v>
+        <v>33.23</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.05814665813446045</v>
+        <v>0.06749633769989014</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8125903116978281</v>
+        <v>0.8083907055660962</v>
       </c>
       <c r="D5">
-        <v>0.8693229754765829</v>
+        <v>0.6812993288040161</v>
       </c>
       <c r="E5">
-        <v>33.63</v>
+        <v>35.54</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.004363534379005432</v>
+        <v>0.00437557235956192</v>
       </c>
       <c r="J5">
-        <v>65.68000000000001</v>
+        <v>66.45999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7282411121740574</v>
+        <v>0.7113278721406208</v>
       </c>
       <c r="D6">
-        <v>0.6707770824432373</v>
+        <v>0.6888059973716736</v>
       </c>
       <c r="E6">
-        <v>35.95</v>
+        <v>36.63</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.06603737754821777</v>
+        <v>0.07243952541351319</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.6582596360183344</v>
+        <v>0.6330952457780761</v>
       </c>
       <c r="D7">
-        <v>0.6209549506505331</v>
+        <v>0.6079980731010437</v>
       </c>
       <c r="E7">
-        <v>37.56</v>
+        <v>37.96</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.004260224652290344</v>
+        <v>0.003739199161529541</v>
       </c>
       <c r="J7">
-        <v>67.26000000000001</v>
+        <v>71.08</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.5966050954369025</v>
+        <v>0.5787000845118266</v>
       </c>
       <c r="D8">
-        <v>0.6009198923905691</v>
+        <v>0.6008750796318054</v>
       </c>
       <c r="E8">
-        <v>36.98</v>
+        <v>38.23</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.06235398750305176</v>
+        <v>0.0690688735961914</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.5443585607094493</v>
+        <v>0.5223993065395975</v>
       </c>
       <c r="D9">
-        <v>0.6287920475006104</v>
+        <v>0.5614283084869385</v>
       </c>
       <c r="E9">
-        <v>37.32</v>
+        <v>39.19</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.003616747689247131</v>
+        <v>0.003415734624862671</v>
       </c>
       <c r="J9">
-        <v>71.90000000000001</v>
+        <v>73.26000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5035726338382659</v>
+        <v>0.4773743499100693</v>
       </c>
       <c r="D10">
-        <v>0.5561047494411469</v>
+        <v>0.5118334293365479</v>
       </c>
       <c r="E10">
-        <v>38.71</v>
+        <v>39.29</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.07902213020324707</v>
+        <v>0.07655083522796631</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.4644227219306357</v>
+        <v>0.440242460103539</v>
       </c>
       <c r="D11">
-        <v>0.5118317902088165</v>
+        <v>0.4911551177501678</v>
       </c>
       <c r="E11">
-        <v>39.73</v>
+        <v>39.42</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.00325561181306839</v>
+        <v>0.00323596922159195</v>
       </c>
       <c r="J11">
-        <v>75.12</v>
+        <v>75.92</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4282607894118239</v>
+        <v>0.4073826791794319</v>
       </c>
       <c r="D12">
-        <v>0.4591117203235626</v>
+        <v>0.519060492515564</v>
       </c>
       <c r="E12">
-        <v>39.96</v>
+        <v>40.13</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.07641525573730469</v>
+        <v>0.07633972206115723</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.3995017482013237</v>
+        <v>0.3596313433433936</v>
       </c>
       <c r="D13">
-        <v>0.503449281056722</v>
+        <v>0.5299490690231323</v>
       </c>
       <c r="E13">
-        <v>39.71</v>
+        <v>39.87</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.003298247039318085</v>
+        <v>0.003082112908363342</v>
       </c>
       <c r="J13">
-        <v>73.95999999999999</v>
+        <v>76.45999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3595314621925354</v>
+        <v>0.3349607689836161</v>
       </c>
       <c r="D14">
-        <v>0.5128497779369354</v>
+        <v>0.5293374061584473</v>
       </c>
       <c r="E14">
-        <v>39.92</v>
+        <v>40.04</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.06985158100128173</v>
+        <v>0.0752610948562622</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3147785778695006</v>
+        <v>0.3008656945170426</v>
       </c>
       <c r="D15">
-        <v>0.5601863662401835</v>
+        <v>0.5959169864654541</v>
       </c>
       <c r="E15">
-        <v>39.8</v>
+        <v>40.17</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.003266761916875839</v>
+        <v>0.002885758626461029</v>
       </c>
       <c r="J15">
-        <v>74.64</v>
+        <v>78.38</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.2962622243941315</v>
+        <v>0.2658336052322776</v>
       </c>
       <c r="D16">
-        <v>0.5296507179737091</v>
+        <v>0.5468791723251343</v>
       </c>
       <c r="E16">
-        <v>40.55</v>
+        <v>40.73</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.07926629657745361</v>
+        <v>0.07820269775390624</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.2533720403425093</v>
+        <v>0.3532110272141976</v>
       </c>
       <c r="D17">
-        <v>0.5596255858739217</v>
+        <v>0.5093264579772949</v>
       </c>
       <c r="E17">
-        <v>39.62</v>
+        <v>40.42</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.002991927820444107</v>
+        <v>0.00283175522685051</v>
       </c>
       <c r="J17">
-        <v>77.42</v>
+        <v>78.58</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.3414101559456771</v>
+        <v>0.3325512067573826</v>
       </c>
       <c r="D18">
-        <v>0.5250123937924703</v>
+        <v>0.4972673356533051</v>
       </c>
       <c r="E18">
-        <v>40.56</v>
+        <v>40.72</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.0788910234451294</v>
+        <v>0.08026079139709473</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.3209327862757008</v>
+        <v>0.3196879969379766</v>
       </c>
       <c r="D19">
-        <v>0.5240714351336161</v>
+        <v>0.5005775690078735</v>
       </c>
       <c r="E19">
-        <v>40.39</v>
+        <v>40.72</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.002804085993766785</v>
+        <v>0.002830134373903274</v>
       </c>
       <c r="J19">
-        <v>79.45999999999999</v>
+        <v>78.84</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.3104163576674655</v>
+        <v>0.3086711111349788</v>
       </c>
       <c r="D20">
-        <v>0.4949415723482768</v>
+        <v>0.4958964288234711</v>
       </c>
       <c r="E20">
-        <v>40.8</v>
+        <v>40.75</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.07891474018096924</v>
+        <v>0.07676160182952881</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.298795014377532</v>
+        <v>0.2967192929207794</v>
       </c>
       <c r="D21">
-        <v>0.4716512660185496</v>
+        <v>0.5043570995330811</v>
       </c>
       <c r="E21">
-        <v>40.69</v>
+        <v>40.77</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.002709349304437637</v>
+        <v>0.002720415234565735</v>
       </c>
       <c r="J21">
-        <v>79.92</v>
+        <v>80.26000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.2880193926696855</v>
+        <v>0.3593374275095095</v>
       </c>
       <c r="D22">
-        <v>0.4839434822400411</v>
+        <v>0.5436975359916687</v>
       </c>
       <c r="E22">
-        <v>40.68</v>
+        <v>40.54</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.07869678363800049</v>
+        <v>0.08702284240722656</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.3439935018134311</v>
+        <v>0.3407265352524393</v>
       </c>
       <c r="D23">
-        <v>0.5213454564412435</v>
+        <v>0.5213198661804199</v>
       </c>
       <c r="E23">
-        <v>40.55</v>
+        <v>40.57</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.002763035666942596</v>
+        <v>0.002815625762939453</v>
       </c>
       <c r="J23">
-        <v>79.42</v>
+        <v>79.73999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.3278112003231436</v>
+        <v>0.3340221156434315</v>
       </c>
       <c r="D24">
-        <v>0.4911466141541799</v>
+        <v>0.5743392109870911</v>
       </c>
       <c r="E24">
-        <v>40.55</v>
+        <v>40.5</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.07498445987701416</v>
+        <v>0.08393898391723632</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.3213681087988179</v>
+        <v>0.3298335441244327</v>
       </c>
       <c r="D25">
-        <v>0.4870822429656982</v>
+        <v>0.5230526328086853</v>
       </c>
       <c r="E25">
-        <v>40.55</v>
+        <v>40.65</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.002753147208690643</v>
+        <v>0.002781204640865326</v>
       </c>
       <c r="J25">
-        <v>79.84</v>
+        <v>80.08</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.3165217794296218</v>
+        <v>0.3247077366927775</v>
       </c>
       <c r="D26">
-        <v>0.4922629495461782</v>
+        <v>0.5035321712493896</v>
       </c>
       <c r="E26">
-        <v>40.43</v>
+        <v>40.59</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.08199309520721436</v>
+        <v>0.07461999225616454</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.3125675400582755</v>
+        <v>0.3721471850464984</v>
       </c>
       <c r="D27">
-        <v>0.483171820640564</v>
+        <v>0.5307528972625732</v>
       </c>
       <c r="E27">
-        <v>40.58</v>
+        <v>40.36</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.002819863015413285</v>
+        <v>0.002891269946098328</v>
       </c>
       <c r="J27">
-        <v>79.59999999999999</v>
+        <v>80.34</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.353235944984405</v>
+        <v>0.3557094592389052</v>
       </c>
       <c r="D28">
-        <v>0.4822747409343719</v>
+        <v>0.5453378558158875</v>
       </c>
       <c r="E28">
-        <v>40.33</v>
+        <v>40.46</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.08597950859069824</v>
+        <v>0.09524719390869141</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.3417607926256289</v>
+        <v>0.3493455309208816</v>
       </c>
       <c r="D29">
-        <v>0.5209096570809683</v>
+        <v>0.5118885040283203</v>
       </c>
       <c r="E29">
-        <v>40.43</v>
+        <v>40.55</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.002775957560539246</v>
+        <v>0.002815701484680176</v>
       </c>
       <c r="J29">
-        <v>81.09999999999999</v>
+        <v>81.45999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.3357684979351556</v>
+        <v>0.345148349559404</v>
       </c>
       <c r="D30">
-        <v>0.4616997539997101</v>
+        <v>0.5309150218963623</v>
       </c>
       <c r="E30">
-        <v>40.4</v>
+        <v>40.58</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.09192684288024902</v>
+        <v>0.1016538452148437</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.33216890789629</v>
+        <v>0.3423345379713105</v>
       </c>
       <c r="D31">
-        <v>0.4593504965305328</v>
+        <v>0.5333600044250488</v>
       </c>
       <c r="E31">
-        <v>40.42</v>
+        <v>40.5</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.003020066380500793</v>
+        <v>0.002624308675527573</v>
       </c>
       <c r="J31">
-        <v>79.23999999999999</v>
+        <v>80.84</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.3294784114128206</v>
+        <v>0.385869221474097</v>
       </c>
       <c r="D32">
-        <v>0.52946537733078</v>
+        <v>0.5219694972038269</v>
       </c>
       <c r="E32">
-        <v>40.48</v>
+        <v>40.02</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.08870452346801758</v>
+        <v>0.0909037467956543</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.3599879790127762</v>
+        <v>0.3710502609004819</v>
       </c>
       <c r="D33">
-        <v>0.4824656546115875</v>
+        <v>0.4848226308822632</v>
       </c>
       <c r="E33">
-        <v>40.01</v>
+        <v>40.16</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.002619522714614868</v>
+        <v>0.002589230251312256</v>
       </c>
       <c r="J33">
-        <v>81.12</v>
+        <v>81.44</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.3535954035152264</v>
+        <v>0.3660709419386174</v>
       </c>
       <c r="D34">
-        <v>0.4582366545995076</v>
+        <v>0.5567101240158081</v>
       </c>
       <c r="E34">
-        <v>40.16</v>
+        <v>40.22</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.08952092590332031</v>
+        <v>0.09443283729553223</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.3502925372705227</v>
+        <v>0.3626013264908054</v>
       </c>
       <c r="D35">
-        <v>0.5002005994319916</v>
+        <v>0.5036542415618896</v>
       </c>
       <c r="E35">
-        <v>40.27</v>
+        <v>40.31</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.002656041342020035</v>
+        <v>0.002615284967422485</v>
       </c>
       <c r="J35">
-        <v>80.78</v>
+        <v>81.44</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.3473762520929662</v>
+        <v>0.3598312008671644</v>
       </c>
       <c r="D36">
-        <v>0.4784862001736959</v>
+        <v>0.5082406401634216</v>
       </c>
       <c r="E36">
-        <v>40.33</v>
+        <v>40.38</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.0919966869354248</v>
+        <v>0.09597752151489258</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.3448259992812707</v>
+        <v>0.357073976983869</v>
       </c>
       <c r="D37">
-        <v>0.4606268008550008</v>
+        <v>0.480644702911377</v>
       </c>
       <c r="E37">
-        <v>40.37</v>
+        <v>40.43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.002633879148960113</v>
+        <v>0.002610044485330582</v>
       </c>
       <c r="J37">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.3428695572585594</v>
+        <v>0.3547871747637183</v>
       </c>
       <c r="D38">
-        <v>0.4728968838850657</v>
+        <v>0.4923109710216522</v>
       </c>
       <c r="E38">
-        <v>40.34</v>
+        <v>40.44</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.09471793670654297</v>
+        <v>0.0988216022491455</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.341064464270584</v>
+        <v>0.3532844435393326</v>
       </c>
       <c r="D39">
-        <v>0.4634376962979634</v>
+        <v>0.4883528649806976</v>
       </c>
       <c r="E39">
-        <v>40.35</v>
+        <v>40.46</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1523,13 +1523,28 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.00262107612490654</v>
+        <v>0.002656667786836624</v>
       </c>
       <c r="J39">
-        <v>81.38</v>
+        <v>81.54000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:10">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.3517466002121205</v>
+      </c>
+      <c r="D40">
+        <v>0.5189453363418579</v>
+      </c>
+      <c r="E40">
+        <v>40.48</v>
+      </c>
       <c r="G40">
         <v>2</v>
       </c>
@@ -1537,13 +1552,28 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.09232813682556153</v>
+        <v>0.09357086944580079</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.3502176706868458</v>
+      </c>
+      <c r="D41">
+        <v>0.5557814240455627</v>
+      </c>
+      <c r="E41">
+        <v>40.52</v>
+      </c>
       <c r="G41">
         <v>1</v>
       </c>
@@ -1551,13 +1581,28 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.00263704651594162</v>
+        <v>0.002609904646873474</v>
       </c>
       <c r="J41">
-        <v>81.36</v>
+        <v>81.08</v>
       </c>
     </row>
     <row r="42" spans="1:10">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.3492598608741915</v>
+      </c>
+      <c r="D42">
+        <v>0.526050329208374</v>
+      </c>
+      <c r="E42">
+        <v>40.48</v>
+      </c>
       <c r="G42">
         <v>2</v>
       </c>
@@ -1565,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.09672134819030762</v>
+        <v>0.0878349796295166</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1579,10 +1624,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.002614343720674515</v>
+        <v>0.002595285338163376</v>
       </c>
       <c r="J43">
-        <v>81.09999999999999</v>
+        <v>81.14</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1593,7 +1638,7 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.08646661949157715</v>
+        <v>0.08899071083068848</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1607,10 +1652,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.002610693144798279</v>
+        <v>0.002593597161769867</v>
       </c>
       <c r="J45">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1621,7 +1666,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.08950296249389648</v>
+        <v>0.09076377182006835</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1635,10 +1680,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.002610482728481293</v>
+        <v>0.002593524277210235</v>
       </c>
       <c r="J47">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1649,7 +1694,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.09149344100952149</v>
+        <v>0.09262452125549317</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1663,10 +1708,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.002608219414949417</v>
+        <v>0.002581756496429443</v>
       </c>
       <c r="J49">
-        <v>80.86</v>
+        <v>81.18000000000001</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1677,7 +1722,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.09126730728149414</v>
+        <v>0.09330757446289062</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1691,10 +1736,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.002607870787382126</v>
+        <v>0.002644850492477417</v>
       </c>
       <c r="J51">
-        <v>81.16</v>
+        <v>80.72</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1705,7 +1750,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.09311314163208008</v>
+        <v>0.08167442455291749</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1719,10 +1764,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.00263362272977829</v>
+        <v>0.002624920833110809</v>
       </c>
       <c r="J53">
-        <v>80.66</v>
+        <v>80.92</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1733,7 +1778,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.08082251930236817</v>
+        <v>0.08468426246643067</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1747,10 +1792,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.002619089925289154</v>
+        <v>0.002611336934566498</v>
       </c>
       <c r="J55">
-        <v>80.86</v>
+        <v>81.09999999999999</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1761,7 +1806,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.08304860534667968</v>
+        <v>0.08634457855224609</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -1775,10 +1820,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.002610802751779556</v>
+        <v>0.002606158399581909</v>
       </c>
       <c r="J57">
-        <v>80.8</v>
+        <v>81.16</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1789,7 +1834,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.08471473388671875</v>
+        <v>0.08763437843322754</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -1803,10 +1848,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.002608297997713089</v>
+        <v>0.002602447497844696</v>
       </c>
       <c r="J59">
-        <v>80.84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1817,7 +1862,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.08594734268188477</v>
+        <v>0.08843632011413574</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -1831,10 +1876,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.002607953470945358</v>
+        <v>0.002686895132064819</v>
       </c>
       <c r="J61">
-        <v>80.95999999999999</v>
+        <v>80.04000000000001</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1845,7 +1890,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.08708149795532226</v>
+        <v>0.07816840209960937</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -1859,10 +1904,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.002667620366811752</v>
+        <v>0.002665933007001877</v>
       </c>
       <c r="J63">
-        <v>80.02</v>
+        <v>80.31999999999999</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -1873,7 +1918,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.07893734741210938</v>
+        <v>0.07939978275299073</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -1887,10 +1932,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.002651814097166061</v>
+        <v>0.002654549103975296</v>
       </c>
       <c r="J65">
-        <v>80.31999999999999</v>
+        <v>80.44</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -1901,7 +1946,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.07946485958099365</v>
+        <v>0.08044711017608643</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -1915,10 +1960,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.002642429983615875</v>
+        <v>0.002645803987979889</v>
       </c>
       <c r="J67">
-        <v>80.54000000000001</v>
+        <v>80.62</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -1929,7 +1974,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.08011545581817626</v>
+        <v>0.0813191785812378</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -1943,10 +1988,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.002635220468044281</v>
+        <v>0.002639099562168121</v>
       </c>
       <c r="J69">
-        <v>80.66</v>
+        <v>80.76000000000001</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -1957,7 +2002,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.08068786697387695</v>
+        <v>0.0821527910232544</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -1971,10 +2016,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.002629912227392197</v>
+        <v>0.002633226817846298</v>
       </c>
       <c r="J71">
-        <v>80.73999999999999</v>
+        <v>80.86</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -1985,7 +2030,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.08123237018585205</v>
+        <v>0.0829294719696045</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -1999,10 +2044,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.002626094788312912</v>
+        <v>0.002628669708967209</v>
       </c>
       <c r="J73">
-        <v>80.68000000000001</v>
+        <v>80.88</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -2013,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.08175309963226318</v>
+        <v>0.08363571052551269</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2027,10 +2072,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.002622476744651795</v>
+        <v>0.002624688798189163</v>
       </c>
       <c r="J75">
-        <v>80.7</v>
+        <v>80.92</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -2041,9 +2086,93 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.08228397598266601</v>
+        <v>0.08421222915649414</v>
       </c>
       <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>38</v>
+      </c>
+      <c r="I77">
+        <v>0.002621688902378082</v>
+      </c>
+      <c r="J77">
+        <v>80.95999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10">
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>38</v>
+      </c>
+      <c r="I78">
+        <v>0.08475099678039551</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10">
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>39</v>
+      </c>
+      <c r="I79">
+        <v>0.002618488782644272</v>
+      </c>
+      <c r="J79">
+        <v>81.04000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10">
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>39</v>
+      </c>
+      <c r="I80">
+        <v>0.0851864917755127</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10">
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>40</v>
+      </c>
+      <c r="I81">
+        <v>0.002616441464424133</v>
+      </c>
+      <c r="J81">
+        <v>80.95999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10">
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>40</v>
+      </c>
+      <c r="I82">
+        <v>0.0856618408203125</v>
+      </c>
+      <c r="J82">
         <v>0</v>
       </c>
     </row>
@@ -2058,7 +2187,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2117,13 +2246,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.657476370749266</v>
+        <v>1.731323925049409</v>
       </c>
       <c r="D3">
-        <v>1.208261430263519</v>
+        <v>1.199891209602356</v>
       </c>
       <c r="E3">
-        <v>51.33</v>
+        <v>50.5</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2132,10 +2261,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.008310697627067565</v>
+        <v>0.008701113414764405</v>
       </c>
       <c r="J3">
-        <v>33.22</v>
+        <v>29.78</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2146,13 +2275,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.041497090588445</v>
+        <v>1.056480479305205</v>
       </c>
       <c r="D4">
-        <v>0.9577624499797821</v>
+        <v>1.005722999572754</v>
       </c>
       <c r="E4">
-        <v>61.25</v>
+        <v>60.05</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2161,10 +2290,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.004832051277160645</v>
+        <v>0.004658307349681854</v>
       </c>
       <c r="J4">
-        <v>69.44</v>
+        <v>71.22</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2175,13 +2304,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8794033060903135</v>
+        <v>0.8920757427163746</v>
       </c>
       <c r="D5">
-        <v>0.8936353474855423</v>
+        <v>0.8559004068374634</v>
       </c>
       <c r="E5">
-        <v>65.93000000000001</v>
+        <v>65.91</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2190,10 +2319,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.007245375442504883</v>
+        <v>0.007340425610542298</v>
       </c>
       <c r="J5">
-        <v>45.72</v>
+        <v>44.18</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2204,13 +2333,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7743526978985124</v>
+        <v>0.7792850943363231</v>
       </c>
       <c r="D6">
-        <v>0.8311187773942947</v>
+        <v>0.8242861032485962</v>
       </c>
       <c r="E6">
-        <v>66.78</v>
+        <v>68.53</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2219,10 +2348,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.003608298778533935</v>
+        <v>0.003936619162559509</v>
       </c>
       <c r="J6">
-        <v>76.78</v>
+        <v>75.92</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2233,13 +2362,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.6911921037927918</v>
+        <v>0.696297429178072</v>
       </c>
       <c r="D7">
-        <v>0.8558211177587509</v>
+        <v>0.8060421347618103</v>
       </c>
       <c r="E7">
-        <v>69.53</v>
+        <v>69.25</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2248,10 +2377,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.006526949906349182</v>
+        <v>0.006291057682037354</v>
       </c>
       <c r="J7">
-        <v>53.42</v>
+        <v>52.06</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2262,13 +2391,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.6264307327244593</v>
+        <v>0.6190903245106988</v>
       </c>
       <c r="D8">
-        <v>0.7608354836702347</v>
+        <v>0.7282993197441101</v>
       </c>
       <c r="E8">
-        <v>70.48</v>
+        <v>71.19</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2277,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.003372484982013702</v>
+        <v>0.003266179448366165</v>
       </c>
       <c r="J8">
-        <v>78.44</v>
+        <v>79.76000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2291,13 +2420,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.561786684167126</v>
+        <v>0.5528593727427981</v>
       </c>
       <c r="D9">
-        <v>0.7853309065103531</v>
+        <v>0.7849745154380798</v>
       </c>
       <c r="E9">
-        <v>69.81999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2306,10 +2435,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.006858448123931884</v>
+        <v>0.005712466275691986</v>
       </c>
       <c r="J9">
-        <v>51.24</v>
+        <v>58.24</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2320,13 +2449,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4980790859655194</v>
+        <v>0.492773340124151</v>
       </c>
       <c r="D10">
-        <v>0.7871809154748917</v>
+        <v>0.8573756217956543</v>
       </c>
       <c r="E10">
-        <v>70.94999999999999</v>
+        <v>69.81999999999999</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2335,10 +2464,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.002792973303794861</v>
+        <v>0.003398492550849915</v>
       </c>
       <c r="J10">
-        <v>82.31999999999999</v>
+        <v>78.81999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2349,13 +2478,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.4328833714775417</v>
+        <v>0.4243375367444495</v>
       </c>
       <c r="D11">
-        <v>0.777238741517067</v>
+        <v>0.7637041807174683</v>
       </c>
       <c r="E11">
-        <v>71.00999999999999</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2364,10 +2493,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.005320544040203094</v>
+        <v>0.00580248544216156</v>
       </c>
       <c r="J11">
-        <v>63.12</v>
+        <v>59.24</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2378,13 +2507,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.3731829521610685</v>
+        <v>0.3693596157042877</v>
       </c>
       <c r="D12">
-        <v>0.7658959776163101</v>
+        <v>0.7921674251556396</v>
       </c>
       <c r="E12">
-        <v>72.71000000000001</v>
+        <v>71.86</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2393,10 +2522,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.003665979087352753</v>
+        <v>0.00308498792052269</v>
       </c>
       <c r="J12">
-        <v>75.94</v>
+        <v>79.26000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2407,13 +2536,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.3126509117529444</v>
+        <v>0.3053830882291431</v>
       </c>
       <c r="D13">
-        <v>0.7923886179924011</v>
+        <v>0.8179534673690796</v>
       </c>
       <c r="E13">
-        <v>72.41</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2422,10 +2551,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.0058639723777771</v>
+        <v>0.005602972781658173</v>
       </c>
       <c r="J13">
-        <v>59.6</v>
+        <v>60.32</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2436,13 +2565,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4897443695884684</v>
+        <v>0.4903627457502095</v>
       </c>
       <c r="D14">
-        <v>0.7502391934394836</v>
+        <v>0.7236064672470093</v>
       </c>
       <c r="E14">
-        <v>71.87</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2451,10 +2580,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.002884798288345337</v>
+        <v>0.002762129908800125</v>
       </c>
       <c r="J14">
-        <v>81.36</v>
+        <v>82.06</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2465,13 +2594,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.4654318423050901</v>
+        <v>0.4607866257429123</v>
       </c>
       <c r="D15">
-        <v>0.7584268599748611</v>
+        <v>0.7168929576873779</v>
       </c>
       <c r="E15">
-        <v>71.91</v>
+        <v>72.47</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2480,10 +2609,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.006104882121086121</v>
+        <v>0.005895039045810699</v>
       </c>
       <c r="J15">
-        <v>58.16</v>
+        <v>60.52</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2494,13 +2623,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.444447643245044</v>
+        <v>0.443146137115748</v>
       </c>
       <c r="D16">
-        <v>0.753379300236702</v>
+        <v>0.7265926003456116</v>
       </c>
       <c r="E16">
-        <v>72.06999999999999</v>
+        <v>72.55</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2509,10 +2638,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.002803047525882721</v>
+        <v>0.002779588043689728</v>
       </c>
       <c r="J16">
-        <v>81.48</v>
+        <v>82.28</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2523,13 +2652,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.4276996664702892</v>
+        <v>0.4241101931294669</v>
       </c>
       <c r="D17">
-        <v>0.7705929428339005</v>
+        <v>0.7443687319755554</v>
       </c>
       <c r="E17">
-        <v>72</v>
+        <v>72.5</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2538,10 +2667,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.005858729183673858</v>
+        <v>0.005959517920017242</v>
       </c>
       <c r="J17">
-        <v>61.94</v>
+        <v>59.92</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2552,13 +2681,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.4097260094207266</v>
+        <v>0.4094354672276456</v>
       </c>
       <c r="D18">
-        <v>0.7476734519004822</v>
+        <v>0.7269152998924255</v>
       </c>
       <c r="E18">
-        <v>72.13</v>
+        <v>72.92</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2567,10 +2696,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.003020730078220367</v>
+        <v>0.003255090802907944</v>
       </c>
       <c r="J18">
-        <v>79.95999999999999</v>
+        <v>79.72</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2581,13 +2710,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.3925843129501395</v>
+        <v>0.391841823640077</v>
       </c>
       <c r="D19">
-        <v>0.763896182179451</v>
+        <v>0.7326924204826355</v>
       </c>
       <c r="E19">
-        <v>72.08</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2596,10 +2725,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.005827647387981414</v>
+        <v>0.005835294270515442</v>
       </c>
       <c r="J19">
-        <v>61.5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2610,13 +2739,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.3752968107228694</v>
+        <v>0.3731644041836262</v>
       </c>
       <c r="D20">
-        <v>0.7606856226921082</v>
+        <v>0.7307294607162476</v>
       </c>
       <c r="E20">
-        <v>72.05000000000001</v>
+        <v>72.39</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2625,10 +2754,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.002948856896162033</v>
+        <v>0.002756731534004212</v>
       </c>
       <c r="J20">
-        <v>80.52</v>
+        <v>82.14</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2639,13 +2768,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.3598387044571016</v>
+        <v>0.4298960707433846</v>
       </c>
       <c r="D21">
-        <v>0.7633494883775711</v>
+        <v>0.717199444770813</v>
       </c>
       <c r="E21">
-        <v>72.49000000000001</v>
+        <v>72.59</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2654,10 +2783,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.005521326422691345</v>
+        <v>0.006535295391082763</v>
       </c>
       <c r="J21">
-        <v>65.7</v>
+        <v>59.92</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2668,13 +2797,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.3426358460894097</v>
+        <v>0.4242804021291111</v>
       </c>
       <c r="D22">
-        <v>0.785208061337471</v>
+        <v>0.723673403263092</v>
       </c>
       <c r="E22">
-        <v>72.25</v>
+        <v>72.5</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2683,10 +2812,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.003212381339073181</v>
+        <v>0.002545238494873047</v>
       </c>
       <c r="J22">
-        <v>79.72</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2697,13 +2826,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.3254998215352711</v>
+        <v>0.4199227324646452</v>
       </c>
       <c r="D23">
-        <v>0.7929874360561371</v>
+        <v>0.7205944061279297</v>
       </c>
       <c r="E23">
-        <v>72.17</v>
+        <v>72.58</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2712,10 +2841,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.006410368609428406</v>
+        <v>0.006682848465442657</v>
       </c>
       <c r="J23">
-        <v>62.2</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2726,13 +2855,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.3766759045260108</v>
+        <v>0.4154623947713686</v>
       </c>
       <c r="D24">
-        <v>0.7574794292449951</v>
+        <v>0.7242040634155273</v>
       </c>
       <c r="E24">
-        <v>72.26000000000001</v>
+        <v>72.61</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2741,10 +2870,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.002872750270366669</v>
+        <v>0.002940166091918945</v>
       </c>
       <c r="J24">
-        <v>82.62</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2755,13 +2884,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.3710275481900443</v>
+        <v>0.4109942846648071</v>
       </c>
       <c r="D25">
-        <v>0.757154181599617</v>
+        <v>0.7205256819725037</v>
       </c>
       <c r="E25">
-        <v>72.59999999999999</v>
+        <v>72.64</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2770,10 +2899,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.005629571235179901</v>
+        <v>0.005749851787090301</v>
       </c>
       <c r="J25">
-        <v>61.98</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2784,13 +2913,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.3665317288073509</v>
+        <v>0.4292265722609084</v>
       </c>
       <c r="D26">
-        <v>0.7561344653367996</v>
+        <v>0.7179222702980042</v>
       </c>
       <c r="E26">
-        <v>72.38</v>
+        <v>72.59</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2799,10 +2928,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.002805539363622666</v>
+        <v>0.002580700010061264</v>
       </c>
       <c r="J26">
-        <v>81.76000000000001</v>
+        <v>82.90000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2813,13 +2942,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.3624499174563781</v>
+        <v>0.4260146538524524</v>
       </c>
       <c r="D27">
-        <v>0.7745410948991776</v>
+        <v>0.7167750597000122</v>
       </c>
       <c r="E27">
-        <v>72.34999999999999</v>
+        <v>72.62</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2828,10 +2957,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.005731849181652069</v>
+        <v>0.0054213014960289</v>
       </c>
       <c r="J27">
-        <v>61.76</v>
+        <v>63.02</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2842,13 +2971,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.3586491599031117</v>
+        <v>0.4245100367976272</v>
       </c>
       <c r="D28">
-        <v>0.7532708942890167</v>
+        <v>0.7229524850845337</v>
       </c>
       <c r="E28">
-        <v>72.55000000000001</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2857,10 +2986,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.002798603957891464</v>
+        <v>0.002771724718809128</v>
       </c>
       <c r="J28">
-        <v>82.06</v>
+        <v>81.92</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2871,13 +3000,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.3763559876090806</v>
+        <v>0.4233365358541841</v>
       </c>
       <c r="D29">
-        <v>0.7494712173938751</v>
+        <v>0.721844494342804</v>
       </c>
       <c r="E29">
-        <v>72.47</v>
+        <v>72.59</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2886,10 +3015,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.005561275207996368</v>
+        <v>0.005532943856716156</v>
       </c>
       <c r="J29">
-        <v>62.66</v>
+        <v>62.98</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2900,13 +3029,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.37205995530214</v>
+        <v>0.4218421439113824</v>
       </c>
       <c r="D30">
-        <v>0.7473082095384598</v>
+        <v>0.7166802287101746</v>
       </c>
       <c r="E30">
-        <v>72.40000000000001</v>
+        <v>72.72</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2915,10 +3044,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.002837358498573303</v>
+        <v>0.002677144342660904</v>
       </c>
       <c r="J30">
-        <v>81.48</v>
+        <v>82.12</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2929,13 +3058,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.3701780160646076</v>
+        <v>0.4211825158285058</v>
       </c>
       <c r="D31">
-        <v>0.7463756799697876</v>
+        <v>0.7290306687355042</v>
       </c>
       <c r="E31">
-        <v>72.55</v>
+        <v>72.64</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2944,10 +3073,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.006002346515655518</v>
+        <v>0.005278353559970856</v>
       </c>
       <c r="J31">
-        <v>61.2</v>
+        <v>64.64</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2958,13 +3087,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.368705666826471</v>
+        <v>0.4197639523316984</v>
       </c>
       <c r="D32">
-        <v>0.7551402002573013</v>
+        <v>0.7228803634643555</v>
       </c>
       <c r="E32">
-        <v>72.33</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -2973,10 +3102,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.002685621303319931</v>
+        <v>0.002942656654119492</v>
       </c>
       <c r="J32">
-        <v>82.8</v>
+        <v>80.36</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2987,13 +3116,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.3675461691682753</v>
+        <v>0.4186395871574464</v>
       </c>
       <c r="D33">
-        <v>0.7505135536193848</v>
+        <v>0.7260879278182983</v>
       </c>
       <c r="E33">
-        <v>72.45</v>
+        <v>72.63</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3002,10 +3131,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.005611650574207306</v>
+        <v>0.005305182433128357</v>
       </c>
       <c r="J33">
-        <v>63.28</v>
+        <v>64.58</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3016,13 +3145,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.3665662744770879</v>
+        <v>0.417834088044322</v>
       </c>
       <c r="D34">
-        <v>0.7538338005542755</v>
+        <v>0.7277178764343262</v>
       </c>
       <c r="E34">
-        <v>72.44</v>
+        <v>72.61</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3031,10 +3160,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.002924640613794327</v>
+        <v>0.002819725304841995</v>
       </c>
       <c r="J34">
-        <v>80.98</v>
+        <v>81.26000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3045,13 +3174,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.365378699062959</v>
+        <v>0.4165888240803843</v>
       </c>
       <c r="D35">
-        <v>0.7562441676855087</v>
+        <v>0.7280434966087341</v>
       </c>
       <c r="E35">
-        <v>72.40000000000001</v>
+        <v>72.63</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3060,10 +3189,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.005792859530448914</v>
+        <v>0.005476012766361236</v>
       </c>
       <c r="J35">
-        <v>62.46</v>
+        <v>63.48</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3074,13 +3203,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.3645576455670854</v>
+        <v>0.4202570824519448</v>
       </c>
       <c r="D36">
-        <v>0.7632714360952377</v>
+        <v>0.7194153070449829</v>
       </c>
       <c r="E36">
-        <v>72.46000000000001</v>
+        <v>72.67</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3089,10 +3218,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.002841968542337417</v>
+        <v>0.002815248042345047</v>
       </c>
       <c r="J36">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3103,13 +3232,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.3684052620083094</v>
+        <v>0.4199467030880244</v>
       </c>
       <c r="D37">
-        <v>0.7480472475290298</v>
+        <v>0.7166546583175659</v>
       </c>
       <c r="E37">
-        <v>72.5</v>
+        <v>72.66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3118,10 +3247,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.005840744864940644</v>
+        <v>0.005891751098632813</v>
       </c>
       <c r="J37">
-        <v>62.7</v>
+        <v>62.32</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3132,13 +3261,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.3678627044124448</v>
+        <v>0.4196536330425221</v>
       </c>
       <c r="D38">
-        <v>0.7473791241645813</v>
+        <v>0.7187880873680115</v>
       </c>
       <c r="E38">
-        <v>72.56</v>
+        <v>72.64</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3147,10 +3276,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.002922330498695374</v>
+        <v>0.002665816789865494</v>
       </c>
       <c r="J38">
-        <v>81.40000000000001</v>
+        <v>82.45999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3161,13 +3290,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.3675075586399306</v>
+        <v>0.4194814990396085</v>
       </c>
       <c r="D39">
-        <v>0.75611612200737</v>
+        <v>0.7167866230010986</v>
       </c>
       <c r="E39">
-        <v>72.50999999999999</v>
+        <v>72.67</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3176,10 +3305,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.005910673630237579</v>
+        <v>0.005458583652973175</v>
       </c>
       <c r="J39">
-        <v>62.78</v>
+        <v>63.08</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3190,13 +3319,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.3674556515786959</v>
+        <v>0.4194517399629821</v>
       </c>
       <c r="D40">
-        <v>0.7509699016809464</v>
+        <v>0.7178731560707092</v>
       </c>
       <c r="E40">
-        <v>72.44</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3205,10 +3334,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.002841309756040573</v>
+        <v>0.002684184098243714</v>
       </c>
       <c r="J40">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3219,13 +3348,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.3671203126887913</v>
+        <v>0.418865625301133</v>
       </c>
       <c r="D41">
-        <v>0.7484546154737473</v>
+        <v>0.7199118733406067</v>
       </c>
       <c r="E41">
-        <v>72.47</v>
+        <v>72.66</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3234,13 +3363,28 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.005714779758453369</v>
+        <v>0.005475252509117127</v>
       </c>
       <c r="J41">
-        <v>63.92</v>
+        <v>62.88</v>
       </c>
     </row>
     <row r="42" spans="1:10">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.4187094795963038</v>
+      </c>
+      <c r="D42">
+        <v>0.7206975221633911</v>
+      </c>
+      <c r="E42">
+        <v>72.69999999999999</v>
+      </c>
       <c r="G42">
         <v>2</v>
       </c>
@@ -3248,10 +3392,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.003065235012769699</v>
+        <v>0.002702376937866211</v>
       </c>
       <c r="J42">
-        <v>80.58</v>
+        <v>82.12</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3262,10 +3406,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.006091460680961609</v>
+        <v>0.005526572144031525</v>
       </c>
       <c r="J43">
-        <v>62.8</v>
+        <v>62.86</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3276,10 +3420,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.002941463327407837</v>
+        <v>0.002680741119384765</v>
       </c>
       <c r="J44">
-        <v>81.54000000000001</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3290,10 +3434,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.005851604044437408</v>
+        <v>0.005583512270450592</v>
       </c>
       <c r="J45">
-        <v>62.1</v>
+        <v>62.66</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3304,10 +3448,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.002745964854955673</v>
+        <v>0.002658903688192367</v>
       </c>
       <c r="J46">
-        <v>82.42</v>
+        <v>82.56</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3318,10 +3462,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.005640964329242706</v>
+        <v>0.005648680138587952</v>
       </c>
       <c r="J47">
-        <v>63.64</v>
+        <v>62.74</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3332,10 +3476,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.002842491060495376</v>
+        <v>0.002631183755397796</v>
       </c>
       <c r="J48">
-        <v>81.56</v>
+        <v>82.54000000000001</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -3346,10 +3490,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.005749450647830963</v>
+        <v>0.005484263634681702</v>
       </c>
       <c r="J49">
-        <v>63.16</v>
+        <v>62.78</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -3360,10 +3504,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.002840431898832321</v>
+        <v>0.002659907591342926</v>
       </c>
       <c r="J50">
-        <v>81.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -3374,10 +3518,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.005802247142791748</v>
+        <v>0.005563467049598694</v>
       </c>
       <c r="J51">
-        <v>62.8</v>
+        <v>62.44</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -3388,10 +3532,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.002834231811761856</v>
+        <v>0.002631332474946976</v>
       </c>
       <c r="J52">
-        <v>81.90000000000001</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -3402,10 +3546,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.005783191978931427</v>
+        <v>0.005514841794967651</v>
       </c>
       <c r="J53">
-        <v>62.92</v>
+        <v>62.82</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -3416,10 +3560,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.002822310984134674</v>
+        <v>0.002658445787429809</v>
       </c>
       <c r="J54">
-        <v>82.18000000000001</v>
+        <v>82.48</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -3430,10 +3574,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.005749733209609986</v>
+        <v>0.005531346440315246</v>
       </c>
       <c r="J55">
-        <v>62.78</v>
+        <v>62.76</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -3444,10 +3588,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.002775789088010788</v>
+        <v>0.002655896151065827</v>
       </c>
       <c r="J56">
-        <v>82.16</v>
+        <v>82.42</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -3458,10 +3602,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.005764337170124054</v>
+        <v>0.005523120367527008</v>
       </c>
       <c r="J57">
-        <v>62.56</v>
+        <v>62.86</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -3472,10 +3616,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.002771791756153107</v>
+        <v>0.00265828327536583</v>
       </c>
       <c r="J58">
-        <v>82.23999999999999</v>
+        <v>82.58</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -3486,10 +3630,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.00572084355354309</v>
+        <v>0.00555011157989502</v>
       </c>
       <c r="J59">
-        <v>63.08</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -3500,10 +3644,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.002798516744375229</v>
+        <v>0.002654362088441849</v>
       </c>
       <c r="J60">
-        <v>82.02</v>
+        <v>82.58</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -3514,10 +3658,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.005783018755912781</v>
+        <v>0.005529772281646728</v>
       </c>
       <c r="J61">
-        <v>62.64</v>
+        <v>62.76</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -3528,10 +3672,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.002775842082500458</v>
+        <v>0.002665718126296997</v>
       </c>
       <c r="J62">
-        <v>82.02</v>
+        <v>82.54000000000001</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -3542,10 +3686,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.005731061673164368</v>
+        <v>0.005513874197006226</v>
       </c>
       <c r="J63">
-        <v>62.9</v>
+        <v>62.88</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -3556,10 +3700,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.002805042505264282</v>
+        <v>0.002674619770050049</v>
       </c>
       <c r="J64">
-        <v>82</v>
+        <v>82.38</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -3570,10 +3714,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.00575330879688263</v>
+        <v>0.005553813636302948</v>
       </c>
       <c r="J65">
-        <v>62.86</v>
+        <v>62.68</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -3584,10 +3728,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.002795792537927627</v>
+        <v>0.002653143012523651</v>
       </c>
       <c r="J66">
-        <v>82.02</v>
+        <v>82.54000000000001</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -3598,10 +3742,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.005766014504432679</v>
+        <v>0.005514228391647339</v>
       </c>
       <c r="J67">
-        <v>62.84</v>
+        <v>63.02</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -3612,10 +3756,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.002794895952939987</v>
+        <v>0.002681056839227676</v>
       </c>
       <c r="J68">
-        <v>81.95999999999999</v>
+        <v>82.23999999999999</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -3626,10 +3770,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.005763842713832856</v>
+        <v>0.005524485182762146</v>
       </c>
       <c r="J69">
-        <v>62.84</v>
+        <v>62.88</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -3640,10 +3784,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.002802317017316818</v>
+        <v>0.002658585298061371</v>
       </c>
       <c r="J70">
-        <v>82.08</v>
+        <v>82.45999999999999</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -3654,10 +3798,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.005728210401535034</v>
+        <v>0.005528382277488708</v>
       </c>
       <c r="J71">
-        <v>62.92</v>
+        <v>62.78</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -3668,10 +3812,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.002794695204496384</v>
+        <v>0.002658399724960327</v>
       </c>
       <c r="J72">
-        <v>82.08</v>
+        <v>82.54000000000001</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -3682,10 +3826,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.00573052009344101</v>
+        <v>0.00552231719493866</v>
       </c>
       <c r="J73">
-        <v>62.96</v>
+        <v>62.78</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -3696,10 +3840,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.002795049732923508</v>
+        <v>0.002662084347009659</v>
       </c>
       <c r="J74">
-        <v>82.16</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="75" spans="7:10">
@@ -3710,10 +3854,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.005739026856422425</v>
+        <v>0.005529314494132995</v>
       </c>
       <c r="J75">
-        <v>62.86</v>
+        <v>62.78</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -3724,10 +3868,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.002791811782121658</v>
+        <v>0.002658564758300781</v>
       </c>
       <c r="J76">
-        <v>82.16</v>
+        <v>82.56</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -3738,10 +3882,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.005751601946353912</v>
+        <v>0.005529915118217469</v>
       </c>
       <c r="J77">
-        <v>62.82</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -3752,10 +3896,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.00278660284280777</v>
+        <v>0.002658795362710953</v>
       </c>
       <c r="J78">
-        <v>82.06</v>
+        <v>82.56</v>
       </c>
     </row>
     <row r="79" spans="7:10">
@@ -3766,10 +3910,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.00573866069316864</v>
+        <v>0.005529847395420074</v>
       </c>
       <c r="J79">
-        <v>62.92</v>
+        <v>62.76</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -3780,10 +3924,38 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.002794248521327973</v>
+        <v>0.002659978419542313</v>
       </c>
       <c r="J80">
-        <v>82.02</v>
+        <v>82.56</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10">
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>40</v>
+      </c>
+      <c r="I81">
+        <v>0.005531894207000732</v>
+      </c>
+      <c r="J81">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10">
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>40</v>
+      </c>
+      <c r="I82">
+        <v>0.002660008710622787</v>
+      </c>
+      <c r="J82">
+        <v>82.59999999999999</v>
       </c>
     </row>
   </sheetData>
